--- a/Bimodal_HDX_Data/pep124_4_HI.xlsx
+++ b/Bimodal_HDX_Data/pep124_4_HI.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/698444b0bac14488/Documents/My Documents/KlevitHahn/hdx-ms/pyHXExpress/Bimodal_HDX_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_FD6E61E05B9DA0E98161C422D7D64BE0D22EFEE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11535"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,14 +149,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +197,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -247,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,16 +442,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>456.34699999999998</v>
       </c>
@@ -640,7 +661,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>456.35700000000003</v>
       </c>
@@ -780,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>456.36599999999999</v>
       </c>
@@ -920,7 +941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>456.375</v>
       </c>
@@ -1060,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>456.38499999999999</v>
       </c>
@@ -1200,7 +1221,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>456.39400000000001</v>
       </c>
@@ -1340,7 +1361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>456.40300000000002</v>
       </c>
@@ -1480,7 +1501,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>456.41300000000001</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>456.42200000000003</v>
       </c>
@@ -1760,7 +1781,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>456.43099999999998</v>
       </c>
@@ -1900,7 +1921,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>456.44099999999997</v>
       </c>
@@ -2040,7 +2061,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>456.45</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>456.459</v>
       </c>
@@ -2320,7 +2341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>456.46899999999999</v>
       </c>
@@ -2460,7 +2481,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>456.47800000000001</v>
       </c>
@@ -2600,7 +2621,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>456.48700000000002</v>
       </c>
@@ -2740,7 +2761,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>456.49599999999998</v>
       </c>
@@ -2880,7 +2901,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>456.50599999999997</v>
       </c>
@@ -3020,7 +3041,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>456.51499999999999</v>
       </c>
@@ -3160,7 +3181,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>456.524</v>
       </c>
@@ -3300,7 +3321,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>456.53399999999999</v>
       </c>
@@ -3440,7 +3461,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>456.54300000000001</v>
       </c>
@@ -3580,7 +3601,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>456.55200000000002</v>
       </c>
@@ -3720,7 +3741,7 @@
         <v>530.5</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>456.56200000000001</v>
       </c>
@@ -3860,7 +3881,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>456.57100000000003</v>
       </c>
@@ -4000,7 +4021,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>456.58</v>
       </c>
@@ -4140,7 +4161,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>456.59</v>
       </c>
@@ -4280,7 +4301,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>456.59899999999999</v>
       </c>
@@ -4420,7 +4441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>456.608</v>
       </c>
@@ -4560,7 +4581,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>456.61799999999999</v>
       </c>
@@ -4700,7 +4721,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>456.62700000000001</v>
       </c>
@@ -4840,7 +4861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>456.63600000000002</v>
       </c>
@@ -4980,7 +5001,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>456.64600000000002</v>
       </c>
@@ -5120,7 +5141,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>456.65499999999997</v>
       </c>
@@ -5260,7 +5281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>456.66399999999999</v>
       </c>
@@ -5400,7 +5421,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>456.67399999999998</v>
       </c>
@@ -5540,7 +5561,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>456.68299999999999</v>
       </c>
@@ -5680,7 +5701,7 @@
         <v>71.75</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>456.69200000000001</v>
       </c>
@@ -5820,7 +5841,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>456.702</v>
       </c>
@@ -5960,7 +5981,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>456.71100000000001</v>
       </c>
@@ -6100,7 +6121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>456.72</v>
       </c>
@@ -6240,7 +6261,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>456.73</v>
       </c>
@@ -6380,7 +6401,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>456.73899999999998</v>
       </c>
@@ -6520,7 +6541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>456.74799999999999</v>
       </c>
@@ -6660,7 +6681,7 @@
         <v>152.80000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>456.75799999999998</v>
       </c>
@@ -6800,7 +6821,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>456.767</v>
       </c>
@@ -6940,7 +6961,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>456.77600000000001</v>
       </c>
@@ -7080,7 +7101,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>456.786</v>
       </c>
@@ -7220,7 +7241,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>456.79500000000002</v>
       </c>
@@ -7360,7 +7381,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>456.80399999999997</v>
       </c>
@@ -7500,7 +7521,7 @@
         <v>961.7</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>456.81400000000002</v>
       </c>
@@ -7640,7 +7661,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>456.82299999999998</v>
       </c>
@@ -7780,7 +7801,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>456.83199999999999</v>
       </c>
@@ -7920,7 +7941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>456.84199999999998</v>
       </c>
@@ -8060,7 +8081,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>456.851</v>
       </c>
@@ -8200,7 +8221,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>456.86</v>
       </c>
@@ -8340,7 +8361,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>456.87</v>
       </c>
@@ -8480,7 +8501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>456.87900000000002</v>
       </c>
@@ -8620,7 +8641,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>456.88799999999998</v>
       </c>
@@ -8760,7 +8781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>456.89800000000002</v>
       </c>
@@ -8900,7 +8921,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>456.90699999999998</v>
       </c>
@@ -9040,7 +9061,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>456.916</v>
       </c>
@@ -9180,7 +9201,7 @@
         <v>40.25</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>456.92599999999999</v>
       </c>
@@ -9320,7 +9341,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>456.935</v>
       </c>
@@ -9460,7 +9481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>456.94400000000002</v>
       </c>
@@ -9600,7 +9621,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>456.95400000000001</v>
       </c>
@@ -9740,7 +9761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>456.96300000000002</v>
       </c>
@@ -9880,7 +9901,7 @@
         <v>71.75</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>456.97199999999998</v>
       </c>
@@ -10020,7 +10041,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>456.98200000000003</v>
       </c>
@@ -10160,7 +10181,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>456.99099999999999</v>
       </c>
@@ -10300,7 +10321,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>457</v>
       </c>
@@ -10440,7 +10461,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>457.01</v>
       </c>
@@ -10580,7 +10601,7 @@
         <v>534.29999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>457.01900000000001</v>
       </c>
@@ -10720,7 +10741,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>457.02800000000002</v>
       </c>
@@ -10860,7 +10881,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>457.03800000000001</v>
       </c>
@@ -11000,7 +11021,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>457.04700000000003</v>
       </c>
@@ -11140,7 +11161,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>457.05599999999998</v>
       </c>
@@ -11280,7 +11301,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>457.06599999999997</v>
       </c>
@@ -11420,7 +11441,7 @@
         <v>410.7</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>457.07499999999999</v>
       </c>
@@ -11560,7 +11581,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>457.084</v>
       </c>
@@ -11700,7 +11721,7 @@
         <v>61.75</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>457.09399999999999</v>
       </c>
@@ -11840,7 +11861,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>457.10300000000001</v>
       </c>
@@ -11980,7 +12001,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>457.11200000000002</v>
       </c>
@@ -12120,7 +12141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>457.12200000000001</v>
       </c>
@@ -12260,7 +12281,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>457.13099999999997</v>
       </c>
@@ -12400,7 +12421,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>457.14</v>
       </c>
@@ -12540,7 +12561,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>457.15</v>
       </c>
@@ -12680,7 +12701,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>457.15899999999999</v>
       </c>
@@ -12820,7 +12841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>457.16800000000001</v>
       </c>
@@ -12960,7 +12981,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>457.178</v>
       </c>
@@ -13100,7 +13121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>457.18700000000001</v>
       </c>
@@ -13240,7 +13261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>457.19600000000003</v>
       </c>
@@ -13380,7 +13401,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>457.20600000000002</v>
       </c>
@@ -13520,7 +13541,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>457.21499999999997</v>
       </c>
@@ -13660,7 +13681,7 @@
         <v>186.3</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>457.22399999999999</v>
       </c>
@@ -13800,7 +13821,7 @@
         <v>324.3</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>457.23399999999998</v>
       </c>
@@ -13940,7 +13961,7 @@
         <v>323.7</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>457.24299999999999</v>
       </c>
@@ -14080,7 +14101,7 @@
         <v>186.7</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>457.25200000000001</v>
       </c>
@@ -14220,7 +14241,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>457.262</v>
       </c>
@@ -14360,7 +14381,7 @@
         <v>593.29999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>457.27100000000002</v>
       </c>
@@ -14500,7 +14521,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>457.28</v>
       </c>
@@ -14640,7 +14661,7 @@
         <v>6186</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>457.29</v>
       </c>
@@ -14780,7 +14801,7 @@
         <v>7576</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>457.29899999999998</v>
       </c>
@@ -14920,7 +14941,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>457.30799999999999</v>
       </c>
@@ -15060,7 +15081,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>457.31799999999998</v>
       </c>
@@ -15200,7 +15221,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>457.327</v>
       </c>
@@ -15340,7 +15361,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>457.33600000000001</v>
       </c>
@@ -15480,7 +15501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>457.346</v>
       </c>
@@ -15620,7 +15641,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>457.35500000000002</v>
       </c>
@@ -15760,7 +15781,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>457.36399999999998</v>
       </c>
@@ -15900,7 +15921,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>457.37400000000002</v>
       </c>
@@ -16040,7 +16061,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>457.38299999999998</v>
       </c>
@@ -16180,7 +16201,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>457.392</v>
       </c>
@@ -16320,7 +16341,7 @@
         <v>94.25</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>457.40199999999999</v>
       </c>
@@ -16460,7 +16481,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>457.411</v>
       </c>
@@ -16600,7 +16621,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>457.42</v>
       </c>
@@ -16740,7 +16761,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>457.43</v>
       </c>
@@ -16880,7 +16901,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>457.43900000000002</v>
       </c>
@@ -17020,7 +17041,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>457.44799999999998</v>
       </c>
@@ -17160,7 +17181,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>457.45800000000003</v>
       </c>
@@ -17300,7 +17321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>457.46699999999998</v>
       </c>
@@ -17440,7 +17461,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>457.476</v>
       </c>
@@ -17580,7 +17601,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>457.48599999999999</v>
       </c>
@@ -17720,7 +17741,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>457.495</v>
       </c>
@@ -17860,7 +17881,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>457.50400000000002</v>
       </c>
@@ -18000,7 +18021,7 @@
         <v>230.3</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>457.51400000000001</v>
       </c>
@@ -18140,7 +18161,7 @@
         <v>923.5</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>457.52300000000002</v>
       </c>
@@ -18280,7 +18301,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>457.53199999999998</v>
       </c>
@@ -18420,7 +18441,7 @@
         <v>6976</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>457.54199999999997</v>
       </c>
@@ -18560,7 +18581,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>457.55099999999999</v>
       </c>
@@ -18700,7 +18721,7 @@
         <v>5122</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>457.56</v>
       </c>
@@ -18840,7 +18861,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>457.57</v>
       </c>
@@ -18980,7 +19001,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>457.57900000000001</v>
       </c>
@@ -19120,7 +19141,7 @@
         <v>151.5</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>457.58800000000002</v>
       </c>
@@ -19260,7 +19281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>457.59800000000001</v>
       </c>
@@ -19400,7 +19421,7 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>457.60700000000003</v>
       </c>
@@ -19540,7 +19561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>457.61599999999999</v>
       </c>
@@ -19680,7 +19701,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>457.62599999999998</v>
       </c>
@@ -19820,7 +19841,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>457.63499999999999</v>
       </c>
@@ -19960,7 +19981,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>457.64499999999998</v>
       </c>
@@ -20100,7 +20121,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>457.654</v>
       </c>
@@ -20240,7 +20261,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>457.66300000000001</v>
       </c>
@@ -20380,7 +20401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>457.673</v>
       </c>
@@ -20520,7 +20541,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>457.68200000000002</v>
       </c>
@@ -20660,7 +20681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>457.69099999999997</v>
       </c>
@@ -20800,7 +20821,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>457.70100000000002</v>
       </c>
@@ -20940,7 +20961,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>457.71</v>
       </c>
@@ -21080,7 +21101,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>457.71899999999999</v>
       </c>
@@ -21220,7 +21241,7 @@
         <v>145.19999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>457.72899999999998</v>
       </c>
@@ -21360,7 +21381,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>457.738</v>
       </c>
@@ -21500,7 +21521,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>457.74700000000001</v>
       </c>
@@ -21640,7 +21661,7 @@
         <v>246.2</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>457.75700000000001</v>
       </c>
@@ -21780,7 +21801,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>457.76600000000002</v>
       </c>
@@ -21920,7 +21941,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>457.77499999999998</v>
       </c>
@@ -22060,7 +22081,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>457.78500000000003</v>
       </c>
@@ -22200,7 +22221,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>457.79399999999998</v>
       </c>
@@ -22340,7 +22361,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>457.803</v>
       </c>
@@ -22480,7 +22501,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>457.81299999999999</v>
       </c>
@@ -22620,7 +22641,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>457.822</v>
       </c>
@@ -22760,7 +22781,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>457.83100000000002</v>
       </c>
@@ -22900,7 +22921,7 @@
         <v>160.30000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>457.84100000000001</v>
       </c>
@@ -23040,7 +23061,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>457.85</v>
       </c>
@@ -23180,7 +23201,7 @@
         <v>151.30000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>457.85899999999998</v>
       </c>
@@ -23320,7 +23341,7 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>457.86900000000003</v>
       </c>
@@ -23460,7 +23481,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>457.87799999999999</v>
       </c>
@@ -23600,7 +23621,7 @@
         <v>56.75</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>457.887</v>
       </c>
@@ -23740,7 +23761,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>457.89699999999999</v>
       </c>
@@ -23880,7 +23901,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>457.90600000000001</v>
       </c>
@@ -24020,7 +24041,7 @@
         <v>85.75</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>457.91500000000002</v>
       </c>
@@ -24160,7 +24181,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>457.92500000000001</v>
       </c>
@@ -24300,7 +24321,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>457.93400000000003</v>
       </c>
@@ -24440,7 +24461,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>457.94299999999998</v>
       </c>
@@ -24580,7 +24601,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>457.95299999999997</v>
       </c>
@@ -24720,7 +24741,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>457.96199999999999</v>
       </c>
@@ -24860,7 +24881,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>457.971</v>
       </c>
@@ -25000,7 +25021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>457.98099999999999</v>
       </c>
@@ -25140,7 +25161,7 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>457.99</v>
       </c>
@@ -25280,7 +25301,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>457.99900000000002</v>
       </c>
@@ -25420,7 +25441,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>458.00900000000001</v>
       </c>
@@ -25560,7 +25581,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>458.01799999999997</v>
       </c>
@@ -25700,7 +25721,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>458.02699999999999</v>
       </c>
@@ -25840,7 +25861,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>458.03699999999998</v>
       </c>
@@ -25980,7 +26001,7 @@
         <v>6558</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>458.04599999999999</v>
       </c>
@@ -26120,7 +26141,7 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>458.05599999999998</v>
       </c>
@@ -26260,7 +26281,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>458.065</v>
       </c>
@@ -26400,7 +26421,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>458.07400000000001</v>
       </c>
@@ -26540,7 +26561,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>458.084</v>
       </c>
@@ -26680,7 +26701,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>458.09300000000002</v>
       </c>
@@ -26820,7 +26841,7 @@
         <v>170.8</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>458.10199999999998</v>
       </c>
@@ -26960,7 +26981,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>458.11200000000002</v>
       </c>
@@ -27100,7 +27121,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>458.12099999999998</v>
       </c>
@@ -27240,7 +27261,7 @@
         <v>79.75</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>458.13</v>
       </c>
@@ -27380,7 +27401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>458.14</v>
       </c>
@@ -27520,7 +27541,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>458.149</v>
       </c>
@@ -27660,7 +27681,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>458.15800000000002</v>
       </c>
@@ -27800,7 +27821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>458.16800000000001</v>
       </c>
@@ -27940,7 +27961,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>458.17700000000002</v>
       </c>
@@ -28080,7 +28101,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>458.18599999999998</v>
       </c>
@@ -28220,7 +28241,7 @@
         <v>89.75</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>458.19600000000003</v>
       </c>
@@ -28360,7 +28381,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>458.20499999999998</v>
       </c>
@@ -28500,7 +28521,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>458.214</v>
       </c>
@@ -28640,7 +28661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>458.22399999999999</v>
       </c>
@@ -28780,7 +28801,7 @@
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>458.233</v>
       </c>
@@ -28920,7 +28941,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>458.24200000000002</v>
       </c>
@@ -29060,7 +29081,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>458.25200000000001</v>
       </c>
@@ -29200,7 +29221,7 @@
         <v>111.7</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>458.26100000000002</v>
       </c>
@@ -29340,7 +29361,7 @@
         <v>319.2</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>458.27</v>
       </c>
@@ -29480,7 +29501,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>458.28</v>
       </c>
@@ -29620,7 +29641,7 @@
         <v>3662</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>458.28899999999999</v>
       </c>
@@ -29760,7 +29781,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>458.298</v>
       </c>
@@ -29900,7 +29921,7 @@
         <v>6398</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>458.30799999999999</v>
       </c>
@@ -30040,7 +30061,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>458.31700000000001</v>
       </c>
@@ -30180,7 +30201,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>458.327</v>
       </c>
@@ -30320,7 +30341,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>458.33600000000001</v>
       </c>
@@ -30460,7 +30481,7 @@
         <v>146.19999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>458.34500000000003</v>
       </c>
@@ -30600,7 +30621,7 @@
         <v>110.3</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>458.35500000000002</v>
       </c>
@@ -30740,7 +30761,7 @@
         <v>84.25</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>458.36399999999998</v>
       </c>
@@ -30880,7 +30901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>458.37299999999999</v>
       </c>
@@ -31020,7 +31041,7 @@
         <v>70.25</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>458.38299999999998</v>
       </c>
@@ -31160,7 +31181,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>458.392</v>
       </c>
@@ -31300,7 +31321,7 @@
         <v>80.25</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>458.40100000000001</v>
       </c>
@@ -31440,7 +31461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>458.411</v>
       </c>
@@ -31580,7 +31601,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>458.42</v>
       </c>
@@ -31720,7 +31741,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>458.42899999999997</v>
       </c>
@@ -31860,7 +31881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>458.43900000000002</v>
       </c>
@@ -32000,7 +32021,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>458.44799999999998</v>
       </c>
@@ -32140,7 +32161,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>458.45699999999999</v>
       </c>
@@ -32280,7 +32301,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>458.46699999999998</v>
       </c>
@@ -32420,7 +32441,7 @@
         <v>87.75</v>
       </c>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>458.476</v>
       </c>
@@ -32560,7 +32581,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>458.48500000000001</v>
       </c>
@@ -32700,7 +32721,7 @@
         <v>87.75</v>
       </c>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>458.495</v>
       </c>
@@ -32840,7 +32861,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>458.50400000000002</v>
       </c>
@@ -32980,7 +33001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>458.51299999999998</v>
       </c>
@@ -33120,7 +33141,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>458.52300000000002</v>
       </c>
@@ -33260,7 +33281,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>458.53199999999998</v>
       </c>
@@ -33400,7 +33421,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>458.54199999999997</v>
       </c>
@@ -33540,7 +33561,7 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>458.55099999999999</v>
       </c>
@@ -33680,7 +33701,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>458.56</v>
       </c>
@@ -33820,7 +33841,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>458.57</v>
       </c>
@@ -33960,7 +33981,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>458.57900000000001</v>
       </c>
@@ -34100,7 +34121,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>458.58800000000002</v>
       </c>
@@ -34240,7 +34261,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>458.59800000000001</v>
       </c>
@@ -34380,7 +34401,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>458.60700000000003</v>
       </c>
@@ -34520,7 +34541,7 @@
         <v>125.8</v>
       </c>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>458.61599999999999</v>
       </c>
@@ -34660,7 +34681,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>458.62599999999998</v>
       </c>
@@ -34800,7 +34821,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>458.63499999999999</v>
       </c>
@@ -34940,7 +34961,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>458.64400000000001</v>
       </c>
@@ -35080,7 +35101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>458.654</v>
       </c>
@@ -35220,7 +35241,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>458.66300000000001</v>
       </c>
@@ -35360,7 +35381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>458.67200000000003</v>
       </c>
@@ -35500,7 +35521,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="252" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>458.68200000000002</v>
       </c>
@@ -35640,7 +35661,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>458.69099999999997</v>
       </c>
@@ -35780,7 +35801,7 @@
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>458.7</v>
       </c>
@@ -35920,7 +35941,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="255" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>458.71</v>
       </c>
@@ -36060,7 +36081,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="256" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>458.71899999999999</v>
       </c>
@@ -36200,7 +36221,7 @@
         <v>79.75</v>
       </c>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>458.72899999999998</v>
       </c>
@@ -36340,7 +36361,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>458.738</v>
       </c>
@@ -36480,7 +36501,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>458.74700000000001</v>
       </c>
@@ -36620,7 +36641,7 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="260" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>458.75700000000001</v>
       </c>
@@ -36760,7 +36781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="261" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>458.76600000000002</v>
       </c>
@@ -36900,7 +36921,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="262" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>458.77499999999998</v>
       </c>
@@ -37040,7 +37061,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="263" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>458.78500000000003</v>
       </c>
@@ -37180,7 +37201,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>458.79399999999998</v>
       </c>
@@ -37320,7 +37341,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>458.803</v>
       </c>
@@ -37460,7 +37481,7 @@
         <v>7251</v>
       </c>
     </row>
-    <row r="266" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>458.81299999999999</v>
       </c>
@@ -37600,7 +37621,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="267" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>458.822</v>
       </c>
@@ -37740,7 +37761,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="268" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>458.83100000000002</v>
       </c>
@@ -37880,7 +37901,7 @@
         <v>351.8</v>
       </c>
     </row>
-    <row r="269" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>458.84100000000001</v>
       </c>
@@ -38020,7 +38041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>458.85</v>
       </c>
@@ -38160,7 +38181,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>458.85899999999998</v>
       </c>
@@ -38300,7 +38321,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>458.86900000000003</v>
       </c>
@@ -38440,7 +38461,7 @@
         <v>85.75</v>
       </c>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>458.87799999999999</v>
       </c>
@@ -38580,7 +38601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>458.88799999999998</v>
       </c>
@@ -38720,7 +38741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>458.89699999999999</v>
       </c>
@@ -38860,7 +38881,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="276" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>458.90600000000001</v>
       </c>
@@ -39000,7 +39021,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="277" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>458.916</v>
       </c>
@@ -39140,7 +39161,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="278" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>458.92500000000001</v>
       </c>
@@ -39280,7 +39301,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="279" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>458.93400000000003</v>
       </c>
@@ -39420,7 +39441,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="280" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>458.94400000000002</v>
       </c>
@@ -39560,7 +39581,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="281" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>458.95299999999997</v>
       </c>
@@ -39700,7 +39721,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>458.96199999999999</v>
       </c>
@@ -39840,7 +39861,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="283" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>458.97199999999998</v>
       </c>
@@ -39980,7 +40001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="284" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>458.98099999999999</v>
       </c>
@@ -40120,7 +40141,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="285" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>458.99</v>
       </c>
@@ -40260,7 +40281,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="286" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>459</v>
       </c>
@@ -40400,7 +40421,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="287" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>459.00900000000001</v>
       </c>
@@ -40540,7 +40561,7 @@
         <v>116.3</v>
       </c>
     </row>
-    <row r="288" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>459.01799999999997</v>
       </c>
@@ -40680,7 +40701,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="289" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>459.02800000000002</v>
       </c>
@@ -40820,7 +40841,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="290" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>459.03699999999998</v>
       </c>
@@ -40960,7 +40981,7 @@
         <v>6985</v>
       </c>
     </row>
-    <row r="291" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>459.04700000000003</v>
       </c>
@@ -41100,7 +41121,7 @@
         <v>11240</v>
       </c>
     </row>
-    <row r="292" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>459.05599999999998</v>
       </c>
@@ -41240,7 +41261,7 @@
         <v>9435</v>
       </c>
     </row>
-    <row r="293" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>459.065</v>
       </c>
@@ -41380,7 +41401,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="294" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>459.07499999999999</v>
       </c>
@@ -41520,7 +41541,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="295" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>459.084</v>
       </c>
@@ -41660,7 +41681,7 @@
         <v>208.5</v>
       </c>
     </row>
-    <row r="296" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>459.09300000000002</v>
       </c>
@@ -41800,7 +41821,7 @@
         <v>78.25</v>
       </c>
     </row>
-    <row r="297" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>459.10300000000001</v>
       </c>
@@ -41940,7 +41961,7 @@
         <v>63.25</v>
       </c>
     </row>
-    <row r="298" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>459.11200000000002</v>
       </c>
@@ -42080,7 +42101,7 @@
         <v>79.25</v>
       </c>
     </row>
-    <row r="299" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>459.12099999999998</v>
       </c>
@@ -42220,7 +42241,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="300" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>459.13099999999997</v>
       </c>
@@ -42360,7 +42381,7 @@
         <v>70.25</v>
       </c>
     </row>
-    <row r="301" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>459.14</v>
       </c>
@@ -42500,7 +42521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="302" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>459.149</v>
       </c>
@@ -42640,7 +42661,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="303" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>459.15899999999999</v>
       </c>
@@ -42780,7 +42801,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="304" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>459.16800000000001</v>
       </c>
@@ -42920,7 +42941,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="305" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>459.17700000000002</v>
       </c>
@@ -43060,7 +43081,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="306" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>459.18700000000001</v>
       </c>
@@ -43200,7 +43221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="307" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>459.19600000000003</v>
       </c>
@@ -43340,7 +43361,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="308" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>459.20600000000002</v>
       </c>
@@ -43480,7 +43501,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>459.21499999999997</v>
       </c>
@@ -43620,7 +43641,7 @@
         <v>164.3</v>
       </c>
     </row>
-    <row r="310" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>459.22399999999999</v>
       </c>
@@ -43760,7 +43781,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="311" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>459.23399999999998</v>
       </c>
@@ -43900,7 +43921,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="312" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>459.24299999999999</v>
       </c>
@@ -44040,7 +44061,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="313" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>459.25200000000001</v>
       </c>
@@ -44180,7 +44201,7 @@
         <v>160.5</v>
       </c>
     </row>
-    <row r="314" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>459.262</v>
       </c>
@@ -44320,7 +44341,7 @@
         <v>98.25</v>
       </c>
     </row>
-    <row r="315" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>459.27100000000002</v>
       </c>
@@ -44460,7 +44481,7 @@
         <v>550.5</v>
       </c>
     </row>
-    <row r="316" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>459.28</v>
       </c>
@@ -44600,7 +44621,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="317" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>459.29899999999998</v>
       </c>
@@ -44740,7 +44761,7 @@
         <v>8487</v>
       </c>
     </row>
-    <row r="318" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>459.30799999999999</v>
       </c>
@@ -44880,7 +44901,7 @@
         <v>11770</v>
       </c>
     </row>
-    <row r="319" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>459.31799999999998</v>
       </c>
@@ -45020,7 +45041,7 @@
         <v>8896</v>
       </c>
     </row>
-    <row r="320" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>459.327</v>
       </c>
@@ -45160,7 +45181,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="321" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>459.33699999999999</v>
       </c>
@@ -45300,7 +45321,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="322" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>459.346</v>
       </c>
@@ -45440,7 +45461,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="323" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>459.35500000000002</v>
       </c>
@@ -45580,7 +45601,7 @@
         <v>193.8</v>
       </c>
     </row>
-    <row r="324" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>459.36500000000001</v>
       </c>
@@ -45720,7 +45741,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="325" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>459.37400000000002</v>
       </c>
@@ -45860,7 +45881,7 @@
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>459.38299999999998</v>
       </c>
@@ -46000,7 +46021,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="327" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>459.39299999999997</v>
       </c>
@@ -46140,7 +46161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="328" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>459.40199999999999</v>
       </c>
@@ -46280,7 +46301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="329" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>459.411</v>
       </c>
@@ -46420,7 +46441,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="330" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>459.42099999999999</v>
       </c>
@@ -46560,7 +46581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="331" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>459.43</v>
       </c>
@@ -46700,7 +46721,7 @@
         <v>52.75</v>
       </c>
     </row>
-    <row r="332" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>459.43900000000002</v>
       </c>
@@ -46840,7 +46861,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="333" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>459.44900000000001</v>
       </c>
@@ -46980,7 +47001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>459.45800000000003</v>
       </c>
@@ -47120,7 +47141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>459.46699999999998</v>
       </c>
@@ -47260,7 +47281,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="336" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>459.47699999999998</v>
       </c>
@@ -47400,7 +47421,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="337" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>459.48599999999999</v>
       </c>
@@ -47540,7 +47561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>459.49599999999998</v>
       </c>
@@ -47680,7 +47701,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="339" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>459.505</v>
       </c>
@@ -47820,7 +47841,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="340" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>459.51400000000001</v>
       </c>
@@ -47960,7 +47981,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="341" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>459.524</v>
       </c>
@@ -48100,7 +48121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="342" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>459.53300000000002</v>
       </c>
@@ -48240,7 +48261,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="343" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>459.54199999999997</v>
       </c>
@@ -48380,7 +48401,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="344" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>459.55200000000002</v>
       </c>
@@ -48520,7 +48541,7 @@
         <v>9622</v>
       </c>
     </row>
-    <row r="345" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>459.56099999999998</v>
       </c>
@@ -48660,7 +48681,7 @@
         <v>12710</v>
       </c>
     </row>
-    <row r="346" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>459.57</v>
       </c>
@@ -48800,7 +48821,7 @@
         <v>8863</v>
       </c>
     </row>
-    <row r="347" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>459.58</v>
       </c>
@@ -48940,7 +48961,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="348" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>459.589</v>
       </c>
@@ -49080,7 +49101,7 @@
         <v>846.3</v>
       </c>
     </row>
-    <row r="349" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>459.59899999999999</v>
       </c>
@@ -49220,7 +49241,7 @@
         <v>209.5</v>
       </c>
     </row>
-    <row r="350" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>459.608</v>
       </c>
@@ -49360,7 +49381,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="351" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>459.61700000000002</v>
       </c>
@@ -49500,7 +49521,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="352" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>459.62700000000001</v>
       </c>
@@ -49640,7 +49661,7 @@
         <v>156.5</v>
       </c>
     </row>
-    <row r="353" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>459.63600000000002</v>
       </c>
@@ -49780,7 +49801,7 @@
         <v>203.8</v>
       </c>
     </row>
-    <row r="354" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>459.64499999999998</v>
       </c>
@@ -49920,7 +49941,7 @@
         <v>216.5</v>
       </c>
     </row>
-    <row r="355" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>459.65499999999997</v>
       </c>
@@ -50060,7 +50081,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="356" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>459.66399999999999</v>
       </c>
@@ -50200,7 +50221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="357" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>459.673</v>
       </c>
@@ -50340,7 +50361,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="358" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>459.68299999999999</v>
       </c>
@@ -50480,7 +50501,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="359" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>459.69200000000001</v>
       </c>
@@ -50620,7 +50641,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="360" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>459.70100000000002</v>
       </c>
@@ -50760,7 +50781,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="361" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>459.71100000000001</v>
       </c>
@@ -50900,7 +50921,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="362" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>459.72</v>
       </c>
@@ -51040,7 +51061,7 @@
         <v>173.2</v>
       </c>
     </row>
-    <row r="363" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>459.73</v>
       </c>
@@ -51180,7 +51201,7 @@
         <v>236.8</v>
       </c>
     </row>
-    <row r="364" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>459.73899999999998</v>
       </c>
@@ -51320,7 +51341,7 @@
         <v>290.5</v>
       </c>
     </row>
-    <row r="365" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>459.74799999999999</v>
       </c>
@@ -51460,7 +51481,7 @@
         <v>261.2</v>
       </c>
     </row>
-    <row r="366" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>459.75799999999998</v>
       </c>
@@ -51600,7 +51621,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="367" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>459.767</v>
       </c>
@@ -51740,7 +51761,7 @@
         <v>155.30000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>459.77600000000001</v>
       </c>
@@ -51880,7 +51901,7 @@
         <v>260.7</v>
       </c>
     </row>
-    <row r="369" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>459.786</v>
       </c>
@@ -52020,7 +52041,7 @@
         <v>916.2</v>
       </c>
     </row>
-    <row r="370" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>459.79500000000002</v>
       </c>
@@ -52160,7 +52181,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="371" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>459.80399999999997</v>
       </c>
@@ -52300,7 +52321,7 @@
         <v>8909</v>
       </c>
     </row>
-    <row r="372" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>459.81400000000002</v>
       </c>
@@ -52440,7 +52461,7 @@
         <v>11020</v>
       </c>
     </row>
-    <row r="373" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>459.82299999999998</v>
       </c>
@@ -52580,7 +52601,7 @@
         <v>7281</v>
       </c>
     </row>
-    <row r="374" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>459.83300000000003</v>
       </c>
@@ -52720,7 +52741,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="375" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>459.84199999999998</v>
       </c>
@@ -52860,7 +52881,7 @@
         <v>635.5</v>
       </c>
     </row>
-    <row r="376" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>459.851</v>
       </c>
@@ -53000,7 +53021,7 @@
         <v>134.69999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>459.86099999999999</v>
       </c>
@@ -53140,7 +53161,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="378" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>459.87</v>
       </c>
@@ -53280,7 +53301,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="379" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>459.87900000000002</v>
       </c>
@@ -53420,7 +53441,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="380" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>459.88900000000001</v>
       </c>
@@ -53560,7 +53581,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="381" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>459.89800000000002</v>
       </c>
@@ -53700,7 +53721,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="382" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>459.90699999999998</v>
       </c>
@@ -53840,7 +53861,7 @@
         <v>56.75</v>
       </c>
     </row>
-    <row r="383" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>459.91699999999997</v>
       </c>
@@ -53980,7 +54001,7 @@
         <v>93.25</v>
       </c>
     </row>
-    <row r="384" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>459.92599999999999</v>
       </c>
@@ -54120,7 +54141,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="385" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>459.935</v>
       </c>
@@ -54260,7 +54281,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="386" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>459.94499999999999</v>
       </c>
@@ -54400,7 +54421,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="387" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>459.95400000000001</v>
       </c>
@@ -54540,7 +54561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>459.964</v>
       </c>
@@ -54680,7 +54701,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="389" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>459.97300000000001</v>
       </c>
@@ -54820,7 +54841,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="390" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>459.98200000000003</v>
       </c>
@@ -54960,7 +54981,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="391" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>459.99200000000002</v>
       </c>
@@ -55100,7 +55121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="392" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>460.00099999999998</v>
       </c>
@@ -55240,7 +55261,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="393" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>460.01</v>
       </c>
@@ -55380,7 +55401,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="394" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>460.02</v>
       </c>
@@ -55520,7 +55541,7 @@
         <v>55.25</v>
       </c>
     </row>
-    <row r="395" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>460.029</v>
       </c>
@@ -55660,7 +55681,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="396" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>460.03899999999999</v>
       </c>
@@ -55800,7 +55821,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="397" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>460.048</v>
       </c>
@@ -55940,7 +55961,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="398" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>460.05700000000002</v>
       </c>
@@ -56080,7 +56101,7 @@
         <v>6427</v>
       </c>
     </row>
-    <row r="399" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>460.06700000000001</v>
       </c>
@@ -56220,7 +56241,7 @@
         <v>7991</v>
       </c>
     </row>
-    <row r="400" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>460.07600000000002</v>
       </c>
@@ -56360,7 +56381,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="401" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>460.08499999999998</v>
       </c>
@@ -56500,7 +56521,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="402" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>460.09500000000003</v>
       </c>
@@ -56640,7 +56661,7 @@
         <v>438.3</v>
       </c>
     </row>
-    <row r="403" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>460.10399999999998</v>
       </c>
@@ -56780,7 +56801,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="404" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>460.113</v>
       </c>
@@ -56920,7 +56941,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="405" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>460.12299999999999</v>
       </c>
@@ -57060,7 +57081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="406" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>460.13200000000001</v>
       </c>
@@ -57200,7 +57221,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="407" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>460.142</v>
       </c>
@@ -57340,7 +57361,7 @@
         <v>92.25</v>
       </c>
     </row>
-    <row r="408" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>460.15100000000001</v>
       </c>
@@ -57480,7 +57501,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="409" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>460.16</v>
       </c>
@@ -57620,7 +57641,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="410" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>460.17</v>
       </c>
@@ -57760,7 +57781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>460.17899999999997</v>
       </c>
@@ -57900,7 +57921,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="412" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>460.18799999999999</v>
       </c>
@@ -58040,7 +58061,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="413" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>460.19799999999998</v>
       </c>
@@ -58180,7 +58201,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="414" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>460.20699999999999</v>
       </c>
@@ -58320,7 +58341,7 @@
         <v>97.75</v>
       </c>
     </row>
-    <row r="415" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>460.21600000000001</v>
       </c>
@@ -58460,7 +58481,7 @@
         <v>188.8</v>
       </c>
     </row>
-    <row r="416" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>460.226</v>
       </c>
@@ -58600,7 +58621,7 @@
         <v>283.7</v>
       </c>
     </row>
-    <row r="417" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>460.23500000000001</v>
       </c>
@@ -58740,7 +58761,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="418" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>460.245</v>
       </c>
@@ -58880,7 +58901,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="419" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>460.25400000000002</v>
       </c>
@@ -59020,7 +59041,7 @@
         <v>85.75</v>
       </c>
     </row>
-    <row r="420" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>460.26299999999998</v>
       </c>
@@ -59160,7 +59181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="421" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>460.27300000000002</v>
       </c>
@@ -59300,7 +59321,7 @@
         <v>203.3</v>
       </c>
     </row>
-    <row r="422" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>460.28199999999998</v>
       </c>
@@ -59440,7 +59461,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="423" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>460.291</v>
       </c>
@@ -59580,7 +59601,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="424" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>460.30099999999999</v>
       </c>
@@ -59720,7 +59741,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="425" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>460.31</v>
       </c>
@@ -59860,7 +59881,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="426" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>460.31900000000002</v>
       </c>
@@ -60000,7 +60021,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="427" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>460.32900000000001</v>
       </c>
@@ -60140,7 +60161,7 @@
         <v>698.5</v>
       </c>
     </row>
-    <row r="428" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>460.33800000000002</v>
       </c>
@@ -60280,7 +60301,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="429" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>460.34800000000001</v>
       </c>
@@ -60420,7 +60441,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="430" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>460.35700000000003</v>
       </c>
@@ -60560,7 +60581,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="431" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>460.36599999999999</v>
       </c>
@@ -60700,7 +60721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="432" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>460.37599999999998</v>
       </c>
@@ -60840,7 +60861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="433" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>460.38499999999999</v>
       </c>
@@ -60980,7 +61001,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="434" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>460.39400000000001</v>
       </c>
@@ -61120,7 +61141,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="435" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>460.46</v>
       </c>
@@ -61260,7 +61281,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="436" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>460.46899999999999</v>
       </c>
@@ -61400,7 +61421,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="437" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>460.488</v>
       </c>
@@ -61540,7 +61561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>460.49700000000001</v>
       </c>
@@ -61680,7 +61701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>460.50700000000001</v>
       </c>
@@ -61820,7 +61841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>460.51600000000002</v>
       </c>
@@ -61960,7 +61981,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="441" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>460.52600000000001</v>
       </c>
@@ -62100,7 +62121,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="442" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>460.53500000000003</v>
       </c>
@@ -62240,7 +62261,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="443" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>460.54399999999998</v>
       </c>
@@ -62380,7 +62401,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="444" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>460.55399999999997</v>
       </c>
@@ -62520,7 +62541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="445" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>460.56299999999999</v>
       </c>
@@ -62660,7 +62681,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="446" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>460.572</v>
       </c>
@@ -62800,7 +62821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="447" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>460.58199999999999</v>
       </c>
@@ -62940,7 +62961,7 @@
         <v>98.25</v>
       </c>
     </row>
-    <row r="448" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>460.59100000000001</v>
       </c>
@@ -63080,7 +63101,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="449" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>460.6</v>
       </c>
@@ -63220,7 +63241,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="450" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>460.61</v>
       </c>
@@ -63360,7 +63381,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="451" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>460.61900000000003</v>
       </c>
@@ -63500,7 +63521,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="452" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>460.62900000000002</v>
       </c>
@@ -63640,7 +63661,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="453" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>460.63799999999998</v>
       </c>
@@ -63780,7 +63801,7 @@
         <v>477.7</v>
       </c>
     </row>
-    <row r="454" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>460.64699999999999</v>
       </c>
@@ -63920,7 +63941,7 @@
         <v>171.8</v>
       </c>
     </row>
-    <row r="455" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>460.65699999999998</v>
       </c>
@@ -64060,7 +64081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="456" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>460.666</v>
       </c>
@@ -64200,7 +64221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="457" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>460.67500000000001</v>
       </c>
@@ -64340,7 +64361,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="458" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>460.685</v>
       </c>
@@ -64480,7 +64501,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="459" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>460.69400000000002</v>
       </c>
@@ -64620,7 +64641,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="460" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>460.70400000000001</v>
       </c>
@@ -64760,7 +64781,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="461" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>460.71300000000002</v>
       </c>
@@ -64900,7 +64921,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="462" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>460.72199999999998</v>
       </c>
@@ -65040,7 +65061,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="463" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>460.73200000000003</v>
       </c>
@@ -65180,7 +65201,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="464" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>460.74099999999999</v>
       </c>
@@ -65320,7 +65341,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="465" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>460.75</v>
       </c>
@@ -65460,7 +65481,7 @@
         <v>72.25</v>
       </c>
     </row>
-    <row r="466" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>460.76</v>
       </c>
@@ -65600,7 +65621,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="467" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>460.76900000000001</v>
       </c>
@@ -65740,7 +65761,7 @@
         <v>176.3</v>
       </c>
     </row>
-    <row r="468" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>460.779</v>
       </c>
@@ -65880,7 +65901,7 @@
         <v>169.8</v>
       </c>
     </row>
-    <row r="469" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>460.78800000000001</v>
       </c>
@@ -66020,7 +66041,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="470" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>460.79700000000003</v>
       </c>
@@ -66160,7 +66181,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="471" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>460.80700000000002</v>
       </c>
@@ -66300,7 +66321,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="472" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>460.81599999999997</v>
       </c>
@@ -66440,7 +66461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>460.82499999999999</v>
       </c>
@@ -66580,7 +66601,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="474" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>460.83499999999998</v>
       </c>
@@ -66720,7 +66741,7 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="475" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>460.84399999999999</v>
       </c>
@@ -66860,7 +66881,7 @@
         <v>367.8</v>
       </c>
     </row>
-    <row r="476" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>460.85300000000001</v>
       </c>
@@ -67000,7 +67021,7 @@
         <v>759.8</v>
       </c>
     </row>
-    <row r="477" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>460.863</v>
       </c>
@@ -67140,7 +67161,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="478" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>460.87200000000001</v>
       </c>
@@ -67280,7 +67301,7 @@
         <v>932.2</v>
       </c>
     </row>
-    <row r="479" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>460.88200000000001</v>
       </c>
@@ -67420,7 +67441,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="480" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>460.89100000000002</v>
       </c>
@@ -67560,7 +67581,7 @@
         <v>194.8</v>
       </c>
     </row>
-    <row r="481" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>460.9</v>
       </c>
@@ -67700,7 +67721,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="482" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A482">
         <v>460.91</v>
       </c>
@@ -67840,7 +67861,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="483" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A483">
         <v>460.91899999999998</v>
       </c>
@@ -67980,7 +68001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A484">
         <v>460.928</v>
       </c>
@@ -68120,7 +68141,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="485" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A485">
         <v>460.93799999999999</v>
       </c>
@@ -68260,7 +68281,7 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="486" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A486">
         <v>460.947</v>
       </c>
@@ -68400,7 +68421,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="487" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A487">
         <v>460.95699999999999</v>
       </c>
@@ -68540,7 +68561,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="488" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A488">
         <v>460.96600000000001</v>
       </c>
@@ -68680,7 +68701,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="489" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A489">
         <v>460.97500000000002</v>
       </c>
@@ -68820,7 +68841,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="490" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A490">
         <v>460.98500000000001</v>
       </c>
@@ -68960,7 +68981,7 @@
         <v>38.75</v>
       </c>
     </row>
-    <row r="491" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A491">
         <v>460.99400000000003</v>
       </c>
@@ -69100,7 +69121,7 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="492" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A492">
         <v>461.00299999999999</v>
       </c>
@@ -69240,7 +69261,7 @@
         <v>75.75</v>
       </c>
     </row>
-    <row r="493" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A493">
         <v>461.01299999999998</v>
       </c>
@@ -69380,7 +69401,7 @@
         <v>75.25</v>
       </c>
     </row>
-    <row r="494" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A494">
         <v>461.02199999999999</v>
       </c>
@@ -69520,7 +69541,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="495" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A495">
         <v>461.03199999999998</v>
       </c>
@@ -69660,7 +69681,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="496" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A496">
         <v>461.041</v>
       </c>
@@ -69800,7 +69821,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="497" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A497">
         <v>461.05</v>
       </c>
@@ -69940,7 +69961,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="498" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A498">
         <v>461.06</v>
       </c>
@@ -70080,7 +70101,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="499" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A499">
         <v>461.06900000000002</v>
       </c>
@@ -70220,7 +70241,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="500" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A500">
         <v>461.11599999999999</v>
       </c>
@@ -70360,7 +70381,7 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="501" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A501">
         <v>461.125</v>
       </c>
@@ -70500,7 +70521,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="502" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A502">
         <v>461.14400000000001</v>
       </c>
@@ -70634,7 +70655,7 @@
         <v>283.7</v>
       </c>
     </row>
-    <row r="503" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C503">
         <v>461.05</v>
       </c>
@@ -70762,7 +70783,7 @@
         <v>337.7</v>
       </c>
     </row>
-    <row r="504" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C504">
         <v>461.06</v>
       </c>
@@ -70890,7 +70911,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="505" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C505">
         <v>461.06900000000002</v>
       </c>
@@ -71018,7 +71039,7 @@
         <v>234.5</v>
       </c>
     </row>
-    <row r="506" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C506">
         <v>461.07799999999997</v>
       </c>
@@ -71140,7 +71161,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C507">
         <v>461.08800000000002</v>
       </c>
@@ -71262,7 +71283,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="508" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C508">
         <v>461.09699999999998</v>
       </c>
@@ -71384,7 +71405,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="509" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C509">
         <v>461.10700000000003</v>
       </c>
@@ -71500,7 +71521,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="510" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C510">
         <v>461.11599999999999</v>
       </c>
@@ -71598,7 +71619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="511" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C511">
         <v>461.125</v>
       </c>
@@ -71684,7 +71705,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="512" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:46" x14ac:dyDescent="0.5">
       <c r="C512">
         <v>461.13499999999999</v>
       </c>
@@ -71746,7 +71767,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="513" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:46" x14ac:dyDescent="0.5">
       <c r="C513">
         <v>461.14400000000001</v>
       </c>
@@ -71796,7 +71817,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="514" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:46" x14ac:dyDescent="0.5">
       <c r="K514">
         <v>461.13499999999999</v>
       </c>
@@ -71816,7 +71837,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="515" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:46" x14ac:dyDescent="0.5">
       <c r="K515">
         <v>461.14400000000001</v>
       </c>
